--- a/docs/01需求分析/项目报价.xlsx
+++ b/docs/01需求分析/项目报价.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="软件报价" sheetId="1" r:id="rId1"/>
+    <sheet name="服务器硬盘配置Oracle RAC版" sheetId="2" r:id="rId2"/>
+    <sheet name="服务器硬盘配置Mysql集群版" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +123,101 @@
   </si>
   <si>
     <t>软件开发总费用=开发费用+维护费用=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Web服务器
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文检索服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量（最少）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel Xeon E5-2640v2（2.0GHz 8核）CPU×2；
+16GB DDR3内存；
+1TB SATA3硬盘
+1G Cache SAS RAID卡×1；
+集成Intel I350双千兆网卡，支持网络唤醒，网络冗余，负载均衡等网络特性；
+冗余电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel Xeon E5-2640v2（2.0GHz 8核）CPU×2；
+32GB DDR3内存；
+2TB以上SSD硬盘
+集成Intel I350双千兆网卡，支持网络唤醒，网络冗余，负载均衡等网络特性；
+冗余电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果需要做RAID，则硬盘数据量*2，另外增配1G Cache SAS RAID卡×1；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel Xeon E5-2640v2（2.0GHz 8核）CPU×2；
+64GB DDR3内存；
+2TB以上SSD硬盘
+1G Cache SAS RAID卡×1；
+集成Intel I350双千兆网卡，支持网络唤醒，网络冗余，负载均衡等网络特性；
+冗余电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql集群——mysql管理节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql集群——mysql服务节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql集群——mysql数据节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle数据库服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle共享磁盘阵列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS800-G25磁盘阵列主机 4U16盘位，双控制器，4个主机I/O插槽 ，配置8个8Gb FC主机接口，双锂电池，2*16GB Cache；冗余电源，标配硬盘混插，数据快照，本地卷拷贝，自动精简配置功能，最大支持128块物理硬盘，配置12块3.5寸 SAS 4T 7.2K转硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel Xeon E5-2640v2（2.0GHz 8核）CPU×2；
+32GB DDR3内存；
+10TB以上SSD硬盘
+集成Intel I350双千兆网卡，支持网络唤醒，网络冗余，负载均衡等网络特性；
+冗余电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel Xeon E5-2640v2（2.0GHz 8核）CPU×2；
+64GB DDR3内存；
+500GB以上SSD硬盘
+集成Intel I350双千兆网卡，支持网络唤醒，网络冗余，负载均衡等网络特性；
+冗余电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量（最少需要）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,8 +309,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,6 +332,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,195 +665,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <f>B2*2.2</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <f t="shared" ref="C3:C12" si="0">B3*2.2</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <f>SUM(B2:B12)</f>
         <v>22</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <f>SUM(C2:C12)</f>
         <v>48.400000000000006</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -760,4 +872,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
+    <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
+    <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/01需求分析/项目报价.xlsx
+++ b/docs/01需求分析/项目报价.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="软件报价" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引文数据的规范化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>知识库子系统的建设和维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,14 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该模块主要是将目前业务数据处理的规则进行代码化，工作量主要不在技术层面，而是业务层面——不同的类型的期刊或者外购数据向标准化格式转化在细节上差异的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要涉及到各词典的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该模块是系统处理智能化的关键，主要是通过统计分析和概率模型实现对引文数据的智能自动标引和纠错，并在数据处理和加工过程中实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保证系统对各种协议的引文可以进行数据交换，即数据导入导出，如ANSI/NISO Z39.50-1995、OpenURL、Dublin Core等（具体协议详见《用户需求》)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为保证系统历史数据的平稳迁移和各种格式外购数据顺利导入系统所做的测试和支撑工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +103,6 @@
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发总费用=开发费用+维护费用=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,15 +189,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数量（最少需要）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发总费用=开发费用+维护费用(10%)=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引文数据的规范化和标准化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证系统对各种协议的引文可以进行数据交换，即数据导入导出，如ANSI/NISO Z39.50-1995、OpenURL、Dublin Core等（具体协议详见《用户需求》)，每种协议都需要单独开发和测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要涉及到各词典的维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Intel Xeon E5-2640v2（2.0GHz 8核）CPU×2；
 64GB DDR3内存；
-500GB以上SSD硬盘
+1TB以上SSD硬盘
 集成Intel I350双千兆网卡，支持网络唤醒，网络冗余，负载均衡等网络特性；
 冗余电源。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量（最少需要）</t>
+    <t>Intel Xeon E5-2640v2（2.0GHz 8核）CPU×2；
+32GB DDR3内存；
+1TB以上SSD硬盘
+集成Intel I350双千兆网卡，支持网络唤醒，网络冗余，负载均衡等网络特性；
+冗余电源。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该模块主要是将目前业务数据处理的规则进行代码化，主要工作量不在技术层面，而是在业务层面——不同的类型的期刊或者外购数据向标准化格式转化在细节上差异的问题，需要开发人员熟悉各种期刊的标引和校对流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,11 +317,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,27 +329,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,203 +657,203 @@
     <col min="1" max="1" width="48.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <f>B2*2.2</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <f t="shared" ref="C3:C12" si="0">B3*2.2</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f>SUM(B2:B12)</f>
         <v>22</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f>SUM(C2:C12)</f>
         <v>48.400000000000006</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <f>C13*(1+0.1)</f>
@@ -879,7 +875,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,64 +888,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="13">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="12">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="12">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -961,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -975,77 +974,80 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="13">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="12">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>34</v>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
